--- a/medicine/Hématologie/Francine_Décary/Francine_Décary.xlsx
+++ b/medicine/Hématologie/Francine_Décary/Francine_Décary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francine_D%C3%A9cary</t>
+          <t>Francine_Décary</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francine Décary est une hématologue, chercheuse scientifique et gestionnaire québécoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francine_D%C3%A9cary</t>
+          <t>Francine_Décary</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Sainte-Geneviève, dans l'ouest de Montréal[1] le 16 décembre 1943[2], elle a étudié la médecine à l’Université de Montréal[3]. Elle a ensuite effectué un stage de deux ans au New York Blood Centre, puis a poursuivi ses recherches aux Pays-Bas, à l'Université d'Amsterdam, où elle a obtenu un doctorat en immuno-hématologie[4]. 
-Elle a travaillé à la Croix-Rouge de 1977 à 1998[5], où elle a été directrice générale pour l'Est du Canada de 1995 à 1998[6]. Elle a été présidente et chef de la direction d'Héma-Québec de 1998 à 2011[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Sainte-Geneviève, dans l'ouest de Montréal le 16 décembre 1943, elle a étudié la médecine à l’Université de Montréal. Elle a ensuite effectué un stage de deux ans au New York Blood Centre, puis a poursuivi ses recherches aux Pays-Bas, à l'Université d'Amsterdam, où elle a obtenu un doctorat en immuno-hématologie. 
+Elle a travaillé à la Croix-Rouge de 1977 à 1998, où elle a été directrice générale pour l'Est du Canada de 1995 à 1998. Elle a été présidente et chef de la direction d'Héma-Québec de 1998 à 2011.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francine_D%C3%A9cary</t>
+          <t>Francine_Décary</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +557,17 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1999 - Prix Médecin de cœur et d'action
 2002 - Ortho Award
 2002 - Médaille du mérite international du sang
 2003 - Prix du Réseau des femmes d'affaires du Québec, catégorie Cadre ou professionnel, organisme public ou parapublic
 2004 - Prix Femme de mérite de la Fondation Y des femmes de Montréal
-2005 - Prix Armand-Frappier[8]
-2008 - Officière de l'Ordre national du Québec[3]</t>
+2005 - Prix Armand-Frappier
+2008 - Officière de l'Ordre national du Québec</t>
         </is>
       </c>
     </row>
